--- a/Data/zcb margin hedge.xlsx
+++ b/Data/zcb margin hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-26437.28339167616</v>
+        <v>-31989.25913157025</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-24252.23393934095</v>
+        <v>-29782.1791073803</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-23159.20358528574</v>
+        <v>-28678.35374562485</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-21978.78489883089</v>
+        <v>-27486.09350850261</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-20911.40434677877</v>
+        <v>-26408.06560400802</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-20422.42065393601</v>
+        <v>-25914.29135526851</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-19427.99656757687</v>
+        <v>-24909.77356620676</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-18624.08870545102</v>
+        <v>-24097.816147024</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-17902.12506787962</v>
+        <v>-23368.7223613079</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-17175.32012559622</v>
+        <v>-22634.46133877024</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-16537.16954071055</v>
+        <v>-21990.01530618187</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-15976.9428275335</v>
+        <v>-21424.18492906089</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-14998.20435571262</v>
+        <v>-20435.62891859351</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-14570.06134994167</v>
+        <v>-20003.18840180698</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-13803.28431121577</v>
+        <v>-19228.68595771086</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-13117.41200830492</v>
+        <v>-18536.00577501818</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-12446.28982107672</v>
+        <v>-17858.18729268479</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-12010.53880187118</v>
+        <v>-17418.03070123218</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-11417.69200321858</v>
+        <v>-16819.24509055579</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-10928.38150511506</v>
+        <v>-16325.03179959057</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-10450.48932493448</v>
+        <v>-15842.33618004296</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-10079.38504855329</v>
+        <v>-15467.52211576104</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-9313.08899960302</v>
+        <v>-14693.57380243666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9216.258688008178</v>
+        <v>-215748.5710522004</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-8677.933813803604</v>
+        <v>-13070.97760419099</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-8203.480362683653</v>
+        <v>-12591.75082636361</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-7850.539881621069</v>
+        <v>-12235.28561339948</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-7371.796039948716</v>
+        <v>-11751.74471131361</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-6930.802849891341</v>
+        <v>-11306.33396762565</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-6570.959962973336</v>
+        <v>-10942.88646640252</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-6265.212204362672</v>
+        <v>-10634.0557048311</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5921.274971792314</v>
+        <v>-10286.67599163866</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5637.420551756501</v>
+        <v>-9999.985427046271</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5347.138036826703</v>
+        <v>-9706.774511311227</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-4892.010136192454</v>
+        <v>-9247.090450196532</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>34841.59726460111</v>
+        <v>-189080.4156991761</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4483.659196789355</v>
+        <v>-8007.031087205728</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4232.568561303367</v>
+        <v>-7753.427048603079</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-3843.80877163213</v>
+        <v>-7360.761570496418</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-3659.779593824667</v>
+        <v>-7174.885784759771</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-3257.249878430186</v>
+        <v>-6768.329126137163</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-2937.125754556016</v>
+        <v>-6444.986732905773</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-2629.125775471682</v>
+        <v>-6133.894893751019</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-2224.196875391551</v>
+        <v>-5724.894070642285</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-2063.382022061921</v>
+        <v>-5562.467269358582</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1821.460274433178</v>
+        <v>-5318.119591455449</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-1497.363973120059</v>
+        <v>-4990.774825619684</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1265.307921382445</v>
+        <v>-4756.389688344367</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-1095.730039528001</v>
+        <v>-4585.093285899497</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-903.7586766512405</v>
+        <v>-4391.218466525484</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-675.8029602351621</v>
+        <v>-4160.964026990506</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-574.9587952446276</v>
+        <v>-4059.091340072169</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-369.5648380189469</v>
+        <v>-3851.640005951087</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-277.5004179233014</v>
+        <v>-3758.641736691817</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-220.2558912064118</v>
+        <v>-3700.817146284463</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-89.06941139413497</v>
+        <v>-3568.310677022051</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-5.08933756713818</v>
+        <v>-3483.481029975487</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>99.48230778367355</v>
+        <v>-3377.854449516352</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>157.232856301743</v>
+        <v>-3319.513566523164</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>292378.2040647739</v>
+        <v>-492817.5191733657</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-921.488155323814</v>
+        <v>-2025.047863225481</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-886.2205855264727</v>
+        <v>-1989.418101308497</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-808.5062905900089</v>
+        <v>-1910.915731726708</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-722.998490587669</v>
+        <v>-1824.543581941109</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-655.505464916907</v>
+        <v>-1756.365764815934</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-559.6072727550384</v>
+        <v>-1659.499537740994</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-508.8896649785958</v>
+        <v>-1608.263028496471</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-434.6714711822225</v>
+        <v>-1533.292784776563</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-336.4276215462594</v>
+        <v>-1434.057080072133</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-262.6465294420126</v>
+        <v>-1359.527930494114</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-213.8305668858023</v>
+        <v>-1310.213669050165</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-155.0710715647506</v>
+        <v>-1250.85793279691</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-84.91471465169532</v>
+        <v>-1179.988988733412</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-16.48778024171408</v>
+        <v>-1110.867627584517</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>23.53772544883801</v>
+        <v>-1070.431708104988</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>80.78639256841173</v>
+        <v>-1012.600500878983</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>133.0309788905426</v>
+        <v>-959.8239077171834</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>183.7866933746467</v>
+        <v>-908.5505595359224</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>187.1402040772139</v>
+        <v>-905.1536744547479</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>236.3036550211976</v>
+        <v>-855.4882727084363</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>276.0624329314194</v>
+        <v>-815.3222901928664</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>305.8121313358838</v>
+        <v>-785.2650521731864</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>340.9181764316488</v>
+        <v>-749.7978154666291</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>114673.087959534</v>
+        <v>-121323.7029740967</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-7.209664518390747</v>
+        <v>-540.5991265130716</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>9.922390639176518</v>
+        <v>-523.2857924972222</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>44.74900160444164</v>
+        <v>-488.1009198298268</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>74.81285013780767</v>
+        <v>-457.7264451304268</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>98.59473784680634</v>
+        <v>-433.6966664696336</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>121.2515697780272</v>
+        <v>-410.8032536286178</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>141.6832919328029</v>
+        <v>-390.1572406970361</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>160.8809158568731</v>
+        <v>-370.7574900681161</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>183.2662870414589</v>
+        <v>-348.1384668047597</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>204.7570658251543</v>
+        <v>-326.4226529059675</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>218.4270770532192</v>
+        <v>-312.6060003798051</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>54066.37544356994</v>
+        <v>-91366.13644827182</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>137.7716595216998</v>
+        <v>-231.0519204750232</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>150.5332492014701</v>
+        <v>-218.1527345383631</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>177.6439726657048</v>
+        <v>-190.760933977337</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>198.9265974771954</v>
+        <v>-169.25548878586</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>211.0858949617025</v>
+        <v>-156.9646091821967</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>231.6891467795918</v>
+        <v>-136.1453387804618</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>250.8010198013525</v>
+        <v>-116.8323116306553</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>267.5071629935069</v>
+        <v>-99.94911736287838</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>286.8933969211442</v>
+        <v>-80.35902471364626</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>301.2587703593004</v>
+        <v>-65.83998487841009</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>318.3480910191107</v>
+        <v>-48.56978892350505</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>329.8811429661313</v>
+        <v>-36.91140071547973</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>344.0083180201271</v>
+        <v>-22.63294891894211</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>353.3037291115784</v>
+        <v>-13.23457650665152</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>361.5601388885832</v>
+        <v>-4.885607706649922</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>369.1265576296663</v>
+        <v>2.766472893560552</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>373.48064478489</v>
+        <v>7.174101975931853</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>376.6809930763702</v>
+        <v>10.41645237472872</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>378.4227118093655</v>
+        <v>12.1855908449481</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>379.0665785321888</v>
+        <v>12.84589610279016</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>379.2638603021059</v>
+        <v>13.05515080963412</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>379.2760678458527</v>
+        <v>13.07748575995785</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>379.2669386742458</v>
+        <v>13.07825987793156</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>127723.8205243445</v>
+        <v>-83480.71983809503</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb margin hedge.xlsx
+++ b/Data/zcb margin hedge.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hedge withzcb" sheetId="1" r:id="rId1"/>
+    <sheet name="Hedge with zcb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-31989.25913157025</v>
+        <v>-7606.248275526393</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-29782.1791073803</v>
+        <v>-7570.289485503228</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-28678.35374562485</v>
+        <v>-7539.219156226245</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-27486.09350850261</v>
+        <v>-7505.201516831244</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-26408.06560400802</v>
+        <v>-7458.899754269549</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-25914.29135526851</v>
+        <v>-7427.718723482979</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-24909.77356620676</v>
+        <v>-7396.442188009907</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-24097.816147024</v>
+        <v>-7349.22281349397</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-23368.7223613079</v>
+        <v>-7319.331454885936</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-22634.46133877024</v>
+        <v>-7296.339662058863</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-21990.01530618187</v>
+        <v>-7268.927631827445</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-21424.18492906089</v>
+        <v>-7234.50045763553</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-20435.62891859351</v>
+        <v>-7205.502957394306</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-20003.18840180698</v>
+        <v>-7171.995651702655</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-19228.68595771086</v>
+        <v>-7152.502048012416</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-18536.00577501818</v>
+        <v>-7117.399450942736</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-17858.18729268479</v>
+        <v>-7083.512549610461</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-17418.03070123218</v>
+        <v>-7060.758282693464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-16819.24509055579</v>
+        <v>-7018.738651712226</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-16325.03179959057</v>
+        <v>-6989.461944954411</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-15842.33618004296</v>
+        <v>-6962.275255976731</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-15467.52211576104</v>
+        <v>-6936.538362429922</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-14693.57380243666</v>
+        <v>-6902.19411164322</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-215748.5710522004</v>
+        <v>-224465.9213633132</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-13070.97760419099</v>
+        <v>-5868.936698937015</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-12591.75082636361</v>
+        <v>-5848.153593510888</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-12235.28561339948</v>
+        <v>-5821.747546578516</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-11751.74471131361</v>
+        <v>-5797.019755131385</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-11306.33396762565</v>
+        <v>-5772.160799018573</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-10942.88646640252</v>
+        <v>-5751.353578639693</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-10634.0557048311</v>
+        <v>-5725.415994185578</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-10286.67599163866</v>
+        <v>-5705.102056996572</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-9999.985427046271</v>
+        <v>-5684.323469519916</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-9706.774511311227</v>
+        <v>-5656.787677971678</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-9247.090450196532</v>
+        <v>-5634.826839834598</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-189080.4156991761</v>
+        <v>-223397.3288452665</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-8007.031087205728</v>
+        <v>-4772.152193097461</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-7753.427048603079</v>
+        <v>-4734.781965616336</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-7360.761570496418</v>
+        <v>-4710.093385290019</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-7174.885784759771</v>
+        <v>-4684.527268733814</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-6768.329126137163</v>
+        <v>-4667.843134584392</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-6444.986732905773</v>
+        <v>-4650.071773018013</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-6133.894893751019</v>
+        <v>-4630.903652172564</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-5724.894070642285</v>
+        <v>-4612.399317401578</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-5562.467269358582</v>
+        <v>-4590.446866706346</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-5318.119591455449</v>
+        <v>-4573.891808164708</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4990.774825619684</v>
+        <v>-4548.79514868383</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4756.389688344367</v>
+        <v>-4526.352580559475</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4585.093285899497</v>
+        <v>-4504.646703642141</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4391.218466525484</v>
+        <v>-4483.783680322917</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4160.964026990506</v>
+        <v>-4457.377789542822</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4059.091340072169</v>
+        <v>-4444.288453043924</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-3851.640005951087</v>
+        <v>-4431.06379419087</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-3758.641736691817</v>
+        <v>-4416.998199535995</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-3700.817146284463</v>
+        <v>-4400.315061177061</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-3568.310677022051</v>
+        <v>-4375.491056503953</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-3483.481029975487</v>
+        <v>-4353.90782651958</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-3377.854449516352</v>
+        <v>-4334.922365923767</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-3319.513566523164</v>
+        <v>-4313.345759948607</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-492817.5191733657</v>
+        <v>-781189.0260929392</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-2025.047863225481</v>
+        <v>-1924.883240920612</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1989.418101308497</v>
+        <v>-1903.886998286028</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1910.915731726708</v>
+        <v>-1890.687752403461</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1824.543581941109</v>
+        <v>-1878.545019346931</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1756.365764815934</v>
+        <v>-1862.207491607219</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1659.499537740994</v>
+        <v>-1843.217850958219</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1608.263028496471</v>
+        <v>-1819.264713987516</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1533.292784776563</v>
+        <v>-1791.541661444585</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1434.057080072133</v>
+        <v>-1776.607499375928</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1359.527930494114</v>
+        <v>-1755.948866310844</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1310.213669050165</v>
+        <v>-1739.027445764634</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1250.85793279691</v>
+        <v>-1725.225130359001</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1179.988988733412</v>
+        <v>-1703.200528818257</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1110.867627584517</v>
+        <v>-1682.218453196462</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1070.431708104988</v>
+        <v>-1661.61158604834</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1012.600500878983</v>
+        <v>-1644.539536082123</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-959.8239077171834</v>
+        <v>-1629.997157480106</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-908.5505595359224</v>
+        <v>-1611.377748772199</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-905.1536744547479</v>
+        <v>-1591.981630799794</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-855.4882727084363</v>
+        <v>-1576.496206133115</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-815.3222901928664</v>
+        <v>-1557.910915441736</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-785.2650521731864</v>
+        <v>-1540.564073282486</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-749.7978154666291</v>
+        <v>-1529.006935324087</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-121323.7029740967</v>
+        <v>-235228.9889752345</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-540.5991265130716</v>
+        <v>-949.2476787340528</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-523.2857924972222</v>
+        <v>-924.8444382700897</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-488.1009198298268</v>
+        <v>-905.3819617951194</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-457.7264451304268</v>
+        <v>-883.401453660026</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-433.6966664696336</v>
+        <v>-860.0433748845646</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-410.8032536286178</v>
+        <v>-848.9842231606673</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-390.1572406970361</v>
+        <v>-834.7854398310041</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-370.7574900681161</v>
+        <v>-816.6258396958029</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-348.1384668047597</v>
+        <v>-796.5659257313672</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-326.4226529059675</v>
+        <v>-770.9020349774661</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-312.6060003798051</v>
+        <v>-749.9842944462665</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-91366.13644827182</v>
+        <v>-144724.2003848115</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-231.0519204750232</v>
+        <v>-549.8023272556974</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-218.1527345383631</v>
+        <v>-535.8121808499786</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-190.760933977337</v>
+        <v>-511.7263144372062</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-169.25548878586</v>
+        <v>-493.2345264373071</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-156.9646091821967</v>
+        <v>-474.0967792825132</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-136.1453387804618</v>
+        <v>-452.7466855415832</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-116.8323116306553</v>
+        <v>-434.1746088180541</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-99.94911736287838</v>
+        <v>-412.6272516615424</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-80.35902471364626</v>
+        <v>-390.3276505753798</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-65.83998487841009</v>
+        <v>-369.4067588643882</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-48.56978892350505</v>
+        <v>-342.4282567041902</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-36.91140071547973</v>
+        <v>-316.7962701351823</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-22.63294891894211</v>
+        <v>-286.5045398145035</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-13.23457650665152</v>
+        <v>-256.2212065573798</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-4.885607706649922</v>
+        <v>-227.710228158059</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2.766472893560552</v>
+        <v>-188.6562525975394</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7.174101975931853</v>
+        <v>-150.632745359834</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>10.41645237472872</v>
+        <v>-117.7466662640344</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>12.1855908449481</v>
+        <v>-73.32193992430317</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>12.84589610279016</v>
+        <v>-31.24383731266539</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>13.05515080963412</v>
+        <v>7.657274034284595</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>13.07748575995785</v>
+        <v>41.51247052448862</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>13.07825987793156</v>
+        <v>59.47387305674705</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-83480.71983809503</v>
+        <v>-67051.07254734253</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb margin hedge.xlsx
+++ b/Data/zcb margin hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-7606.248275526393</v>
+        <v>-27881.23250359589</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-7570.289485503228</v>
+        <v>-28495.38179568121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-7539.219156226245</v>
+        <v>-28923.69021399447</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-7505.201516831244</v>
+        <v>-29272.86359874683</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-7458.899754269549</v>
+        <v>-29419.57461676278</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7427.718723482979</v>
+        <v>-29228.12530471575</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7396.442188009907</v>
+        <v>-29035.833954821</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-7349.22281349397</v>
+        <v>-28857.33223886176</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7319.331454885936</v>
+        <v>-28535.90794537631</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-7296.339662058863</v>
+        <v>-28088.06299961242</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-7268.927631827445</v>
+        <v>-27589.25182075662</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-7234.50045763553</v>
+        <v>-27175.21709075347</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-7205.502957394306</v>
+        <v>-26644.51173445658</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-7171.995651702655</v>
+        <v>-26160.19933910591</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-7152.502048012416</v>
+        <v>-25185.04172433558</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-7117.399450942736</v>
+        <v>-24246.55786468041</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-7083.512549610461</v>
+        <v>-23907.54329608224</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-7060.758282693464</v>
+        <v>-23224.99783835219</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-7018.738651712226</v>
+        <v>-22642.99254637345</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-6989.461944954411</v>
+        <v>-22013.26030683119</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-6962.275255976731</v>
+        <v>-21347.50084275148</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-6936.538362429922</v>
+        <v>-20674.66850071543</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6902.19411164322</v>
+        <v>-20110.55184117708</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-224465.9213633132</v>
+        <v>-126495.1281024043</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-5868.936698937015</v>
+        <v>-15941.10292414352</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-5848.153593510888</v>
+        <v>-15731.5818641995</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-5821.747546578516</v>
+        <v>-15446.38937800356</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-5797.019755131385</v>
+        <v>-14936.99422334072</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-5772.160799018573</v>
+        <v>-14699.07834848258</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5751.353578639693</v>
+        <v>-14237.01849697854</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-5725.415994185578</v>
+        <v>-13972.82321277878</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5705.102056996572</v>
+        <v>-13486.57384085238</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5684.323469519916</v>
+        <v>-13216.43409389166</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5656.787677971678</v>
+        <v>-12850.64425225038</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-5634.826839834598</v>
+        <v>-12484.75253845604</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-223397.3288452665</v>
+        <v>-118239.9123815662</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4772.152193097461</v>
+        <v>-10048.8359947376</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4734.781965616336</v>
+        <v>-9786.736220627618</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-4710.093385290019</v>
+        <v>-9596.997607225756</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-4684.527268733814</v>
+        <v>-9414.014508152879</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-4667.843134584392</v>
+        <v>-9496.654341654883</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-4650.071773018013</v>
+        <v>-9209.962991713042</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-4630.903652172564</v>
+        <v>-8840.605871557716</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-4612.399317401578</v>
+        <v>-8752.498043822674</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-4590.446866706346</v>
+        <v>-8577.166903356196</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-4573.891808164708</v>
+        <v>-8466.764175389368</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4548.79514868383</v>
+        <v>-8346.547118841856</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4526.352580559475</v>
+        <v>-8102.078085580432</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4504.646703642141</v>
+        <v>-7877.744423692889</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4483.783680322917</v>
+        <v>-7729.36828555788</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4457.377789542822</v>
+        <v>-7633.593738251687</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4444.288453043924</v>
+        <v>-7452.152716942132</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-4431.06379419087</v>
+        <v>-7371.868375153754</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-4416.998199535995</v>
+        <v>-7236.74646013146</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-4400.315061177061</v>
+        <v>-7041.325866150253</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-4375.491056503953</v>
+        <v>-6830.345461383787</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-4353.90782651958</v>
+        <v>-6701.258833549325</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-4334.922365923767</v>
+        <v>-6598.888527639163</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-4313.345759948607</v>
+        <v>-6479.069310182533</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-781189.0260929392</v>
+        <v>-375346.4056631237</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1924.883240920612</v>
+        <v>-2484.937197534189</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1903.886998286028</v>
+        <v>-2464.975444856743</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1890.687752403461</v>
+        <v>-2433.455946091238</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1878.545019346931</v>
+        <v>-2386.10817848711</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1862.207491607219</v>
+        <v>-2358.990122675567</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1843.217850958219</v>
+        <v>-2320.325502344339</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1819.264713987516</v>
+        <v>-2266.342766311911</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1791.541661444585</v>
+        <v>-2234.750665777434</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1776.607499375928</v>
+        <v>-2213.463990834413</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1755.948866310844</v>
+        <v>-2168.062145779574</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1739.027445764634</v>
+        <v>-2158.552737196191</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1725.225130359001</v>
+        <v>-2115.460068420996</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1703.200528818257</v>
+        <v>-2070.203640633352</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1682.218453196462</v>
+        <v>-2057.057923857521</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1661.61158604834</v>
+        <v>-2033.095777004562</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1644.539536082123</v>
+        <v>-2013.486166195449</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-1629.997157480106</v>
+        <v>-1986.204481515822</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-1611.377748772199</v>
+        <v>-1962.802959698522</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1591.981630799794</v>
+        <v>-1918.713800333229</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1576.496206133115</v>
+        <v>-1886.69067889798</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1557.910915441736</v>
+        <v>-1900.732379295321</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1540.564073282486</v>
+        <v>-1863.56465700714</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1529.006935324087</v>
+        <v>-1822.011428942149</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-235228.9889752345</v>
+        <v>-120534.4030253717</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-949.2476787340528</v>
+        <v>-1030.183696977829</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-924.8444382700897</v>
+        <v>-1018.534660745523</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-905.3819617951194</v>
+        <v>-1014.384208856549</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-883.401453660026</v>
+        <v>-990.555339854618</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-860.0433748845646</v>
+        <v>-969.9804716672305</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-848.9842231606673</v>
+        <v>-975.60217766158</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-834.7854398310041</v>
+        <v>-964.8045357326645</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-816.6258396958029</v>
+        <v>-947.1045430825643</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-796.5659257313672</v>
+        <v>-935.9203743704252</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-770.9020349774661</v>
+        <v>-935.5944122737466</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-749.9842944462665</v>
+        <v>-923.5054847320531</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-144724.2003848115</v>
+        <v>-97422.58063887546</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-549.8023272556974</v>
+        <v>-601.6154911657328</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-535.8121808499786</v>
+        <v>-597.1210579008043</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-511.7263144372062</v>
+        <v>-587.1650156301567</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-493.2345264373071</v>
+        <v>-583.3236182055379</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-474.0967792825132</v>
+        <v>-568.2914040679975</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-452.7466855415832</v>
+        <v>-558.9915667393825</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-434.1746088180541</v>
+        <v>-557.8285594243871</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-412.6272516615424</v>
+        <v>-557.6743649234909</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-390.3276505753798</v>
+        <v>-560.5036457989665</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-369.4067588643882</v>
+        <v>-559.4679824731162</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-342.4282567041902</v>
+        <v>-557.4440144411889</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-316.7962701351823</v>
+        <v>-553.1755034175508</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-286.5045398145035</v>
+        <v>-550.3286710904625</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-256.2212065573798</v>
+        <v>-539.4870835261871</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-227.710228158059</v>
+        <v>-536.4900559546192</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-188.6562525975394</v>
+        <v>-528.6616834398425</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-150.632745359834</v>
+        <v>-522.3470835370285</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-117.7466662640344</v>
+        <v>-514.9444010653691</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-73.32193992430317</v>
+        <v>-503.2233221826348</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-31.24383731266539</v>
+        <v>-500.3735488337527</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7.657274034284595</v>
+        <v>-494.5290686715024</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>41.51247052448862</v>
+        <v>-485.0986265146083</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>59.47387305674705</v>
+        <v>-473.6230951931367</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-67051.07254734253</v>
+        <v>-111060.8374314895</v>
       </c>
     </row>
   </sheetData>
